--- a/script/result_llm_tranform/ardupilot_docs/ap_loiter-mode/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_loiter-mode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16955" windowHeight="9024"/>
+    <workbookView windowWidth="14051" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,12 @@
     <t>{'sentence': '2.LOIT_ACC_MAX: max acceleration in cm/s/s.', 'formula': 'G(A ≤ acc_max)', 'explanation': "A denotes the vehicle's acceleration. The formula ensures that acceleration remains below a specified maximum value, acc_max."}</t>
   </si>
   <si>
-    <t>{'sentence': '2.LOIT_ACC_MAX: max acceleration in cm/s/s.', 'formula': 'G(A ≤ M)', 'explanation': 'Similar to the previous formula, this states that globally (G), the acceleration (A) is always less than or equal to the maximum acceleration (M).'}</t>
+    <t>{'sentence': '2.LOIT_ACC_MAX: max acceleration in cm/s/s.', 'formula': 'G(A ≤ M)', 'explanation': 'Similar to the previous formula, this states that globally (G), the acceleration (A) is always less than or equal to the maximum acceleration (M).'}
+  {
+    "sentence": "Higher values cause the copter to accelerate and stop more quickly",
+    "formula": "G(H → F(Q ∧ R))",
+    "explanation": "This formula expresses that globally (G), if higher values are set (H), then eventually (F) the copter will accelerate quickly (Q) and stop quickly (R). The causal relationship is captured by the implication."
+  }</t>
   </si>
   <si>
     <t>45-45</t>
@@ -1342,10 +1347,10 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1733,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="187.2" spans="1:12">
+    <row r="11" ht="409.5" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
